--- a/data/steve-fox-tekken-8-frame-data.xlsx
+++ b/data/steve-fox-tekken-8-frame-data.xlsx
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -520,15 +516,11 @@
         <v>12</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -552,15 +544,11 @@
         <v>27</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -584,15 +572,11 @@
         <v>27</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -622,15 +606,11 @@
       <c r="D6" t="n">
         <v>14</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+17/KND</t>
-        </is>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -656,15 +636,11 @@
       <c r="D7" t="n">
         <v>10</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -688,15 +664,11 @@
         <v>30</v>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -720,15 +692,11 @@
         <v>45</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -752,15 +720,11 @@
         <v>49</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -814,15 +778,11 @@
         <v>20</v>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -852,15 +812,11 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -880,15 +836,11 @@
         <v>26</v>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -912,15 +864,11 @@
         <v>48</v>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>70</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -944,15 +892,11 @@
         <v>29</v>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -1064,15 +1008,11 @@
       <c r="D21" t="n">
         <v>16</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>70</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1094,15 +1034,11 @@
       <c r="D22" t="n">
         <v>23</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+17/KND</t>
-        </is>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1128,15 +1064,11 @@
       <c r="D23" t="n">
         <v>34</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1186,15 +1118,11 @@
       <c r="D25" t="n">
         <v>22</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E25" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>70</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1216,15 +1144,11 @@
       <c r="D26" t="n">
         <v>12</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>70</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1246,15 +1170,11 @@
       <c r="D27" t="n">
         <v>13</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E27" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1282,15 +1202,11 @@
         <v>27</v>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1310,15 +1226,11 @@
         <v>27</v>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E29" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1366,15 +1278,11 @@
         <v>20</v>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1398,15 +1306,11 @@
         <v>30</v>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E32" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>70</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1428,15 +1332,11 @@
       <c r="D33" t="n">
         <v>17</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E33" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" t="n">
+        <v>14</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1532,15 +1432,11 @@
       <c r="D37" t="n">
         <v>16</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E37" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1566,15 +1462,11 @@
       <c r="D38" t="n">
         <v>17</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E38" t="n">
+        <v>18</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-5</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -1594,15 +1486,11 @@
         <v>19</v>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E39" t="n">
+        <v>11</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1630,15 +1518,11 @@
         <v>36</v>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>70</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1664,15 +1548,11 @@
       <c r="D41" t="n">
         <v>10</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -1694,15 +1574,11 @@
       <c r="D42" t="n">
         <v>28</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="n">
+        <v>14</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -1724,15 +1600,11 @@
       <c r="D43" t="n">
         <v>26</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1762,15 +1634,11 @@
       <c r="D44" t="n">
         <v>16</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E44" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -1790,15 +1658,11 @@
         <v>20</v>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1824,15 +1688,11 @@
       <c r="D46" t="n">
         <v>19</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>70</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1858,15 +1718,11 @@
       <c r="D47" t="n">
         <v>16</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E47" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1886,15 +1742,11 @@
         <v>12</v>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -1914,15 +1766,11 @@
         <v>16</v>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E49" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -1942,15 +1790,11 @@
         <v>30</v>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E50" t="n">
+        <v>12</v>
+      </c>
+      <c r="F50" t="n">
+        <v>70</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -1972,15 +1816,11 @@
       <c r="D51" t="n">
         <v>19</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F51" t="n">
+        <v>70</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2002,15 +1842,11 @@
       <c r="D52" t="n">
         <v>15</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>70</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2064,15 +1900,11 @@
       <c r="D54" t="n">
         <v>13</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -2096,15 +1928,11 @@
         <v>1213</v>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2132,15 +1960,11 @@
         <v>1220</v>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2168,15 +1992,11 @@
         <v>32</v>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2200,15 +2020,11 @@
         <v>1212</v>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>70</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2234,15 +2050,11 @@
       <c r="D59" t="n">
         <v>16</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E59" t="n">
+        <v>11</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2272,16 +2084,10 @@
       <c r="D60" t="n">
         <v>19</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+KND</t>
-        </is>
-      </c>
+      <c r="E60" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>Launch</t>
@@ -2306,15 +2112,11 @@
       <c r="D61" t="n">
         <v>19</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E61" t="n">
+        <v>14</v>
+      </c>
+      <c r="F61" t="n">
+        <v>70</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2336,15 +2138,9 @@
       <c r="D62" t="n">
         <v>15</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-+2</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>70</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
@@ -2370,15 +2166,11 @@
       <c r="D63" t="n">
         <v>15</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E63" t="n">
+        <v>14</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-3</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -2398,15 +2190,11 @@
         <v>1230</v>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E64" t="n">
+        <v>13</v>
+      </c>
+      <c r="F64" t="n">
+        <v>70</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -2428,15 +2216,11 @@
       <c r="D65" t="n">
         <v>21</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E65" t="n">
+        <v>6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -2456,15 +2240,11 @@
         <v>23</v>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2488,15 +2268,11 @@
         <v>31</v>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>70</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -2516,15 +2292,11 @@
         <v>1115</v>
       </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="E68" t="n">
+        <v>6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>11</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2548,15 +2320,11 @@
         <v>1148</v>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E69" t="n">
+        <v>12</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -2626,15 +2394,11 @@
       <c r="D72" t="n">
         <v>15</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E72" t="n">
+        <v>12</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
@@ -2660,15 +2424,11 @@
       <c r="D73" t="n">
         <v>8</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E73" t="n">
+        <v>15</v>
+      </c>
+      <c r="F73" t="n">
+        <v>70</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2690,15 +2450,11 @@
       <c r="D74" t="n">
         <v>14</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-13c</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E74" t="n">
+        <v>13</v>
+      </c>
+      <c r="F74" t="n">
+        <v>70</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -2720,15 +2476,11 @@
       <c r="D75" t="n">
         <v>20</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E75" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>17</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2754,15 +2506,11 @@
       <c r="D76" t="n">
         <v>12</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E76" t="n">
+        <v>4</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2786,15 +2534,11 @@
         <v>22</v>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2822,15 +2566,11 @@
         <v>30</v>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E78" t="n">
+        <v>9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
@@ -2854,15 +2594,11 @@
         <v>30</v>
       </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E79" t="n">
+        <v>12</v>
+      </c>
+      <c r="F79" t="n">
+        <v>70</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -2886,15 +2622,11 @@
         <v>30</v>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>+14g</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+23g</t>
-        </is>
+      <c r="E80" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F80" t="n">
+        <v>23</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2922,15 +2654,11 @@
         <v>22</v>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>+14g</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+23g</t>
-        </is>
+      <c r="E81" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F81" t="n">
+        <v>23</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -2950,15 +2678,11 @@
         <v>39</v>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -2981,10 +2705,8 @@
         <v>12</v>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F83" t="n">
+        <v>70</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3008,15 +2730,11 @@
         <v>36</v>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E84" t="n">
+        <v>13</v>
+      </c>
+      <c r="F84" t="n">
+        <v>70</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -3036,15 +2754,11 @@
         <v>28</v>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>+17g</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+28g</t>
-        </is>
+      <c r="E85" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F85" t="n">
+        <v>28</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3072,15 +2786,11 @@
         <v>37</v>
       </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+18g</t>
-        </is>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>18</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3104,15 +2814,11 @@
         <v>31</v>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3134,15 +2840,11 @@
       <c r="D88" t="n">
         <v>18</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-5c</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>70</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3168,15 +2870,11 @@
       <c r="D89" t="n">
         <v>4</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E89" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" t="n">
+        <v>70</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -3223,10 +2921,8 @@
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="F91" t="n">
+        <v>14</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
@@ -3251,10 +2947,8 @@
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F92" t="n">
+        <v>70</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3306,15 +3000,11 @@
       <c r="D94" t="n">
         <v>14</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+17/KND</t>
-        </is>
+      <c r="E94" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>17</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -3336,15 +3026,11 @@
       <c r="D95" t="n">
         <v>20</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E95" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F95" t="n">
+        <v>70</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
@@ -3370,15 +3056,11 @@
       <c r="D96" t="n">
         <v>16</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E96" t="n">
+        <v>13</v>
+      </c>
+      <c r="F96" t="n">
+        <v>70</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3400,15 +3082,11 @@
       <c r="D97" t="n">
         <v>15</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E97" t="n">
+        <v>10</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3432,15 +3110,11 @@
         <v>1422</v>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E98" t="n">
+        <v>13</v>
+      </c>
+      <c r="F98" t="n">
+        <v>70</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
@@ -3460,15 +3134,11 @@
         <v>1414</v>
       </c>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E99" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
@@ -3492,15 +3162,11 @@
         <v>1417</v>
       </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E100" t="n">
+        <v>8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3524,15 +3190,11 @@
         <v>149</v>
       </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -3552,15 +3214,11 @@
         <v>1498</v>
       </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E102" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3586,15 +3244,11 @@
       <c r="D103" t="n">
         <v>14</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E103" t="n">
+        <v>5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
@@ -3618,15 +3272,11 @@
         <v>1321</v>
       </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E104" t="n">
+        <v>8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3682,15 +3332,11 @@
       <c r="D106" t="n">
         <v>12</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -3709,10 +3355,8 @@
         <v>11</v>
       </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F107" t="n">
+        <v>70</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -3736,15 +3380,11 @@
         <v>1014</v>
       </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>8</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -3764,15 +3404,11 @@
         <v>101421</v>
       </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E109" t="n">
+        <v>13</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3798,15 +3434,11 @@
       <c r="D110" t="n">
         <v>14</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E110" t="n">
+        <v>3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3836,15 +3468,11 @@
       <c r="D111" t="n">
         <v>17</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E111" t="n">
+        <v>19</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-6</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -3866,15 +3494,11 @@
       <c r="D112" t="n">
         <v>17</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E112" t="n">
+        <v>7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-1</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -3894,15 +3518,11 @@
         <v>37</v>
       </c>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E113" t="n">
+        <v>11</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-5</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -3922,15 +3542,11 @@
         <v>58</v>
       </c>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E114" t="n">
+        <v>10</v>
+      </c>
+      <c r="F114" t="n">
+        <v>70</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -3956,15 +3572,11 @@
       <c r="D115" t="n">
         <v>28</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E115" t="n">
+        <v>13</v>
+      </c>
+      <c r="F115" t="n">
+        <v>70</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -3986,15 +3598,11 @@
       <c r="D116" t="n">
         <v>15</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E116" t="n">
+        <v>12</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -4016,15 +3624,11 @@
       <c r="D117" t="n">
         <v>28</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E117" t="n">
+        <v>12</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4050,15 +3654,11 @@
       <c r="D118" t="n">
         <v>15</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E118" t="n">
+        <v>9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -4078,15 +3678,11 @@
         <v>1214</v>
       </c>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
@@ -4106,15 +3702,11 @@
         <v>121412</v>
       </c>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E120" t="n">
+        <v>11</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-3</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -4134,15 +3726,11 @@
         <v>121432</v>
       </c>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E121" t="n">
+        <v>13</v>
+      </c>
+      <c r="F121" t="n">
+        <v>70</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -4162,15 +3750,11 @@
         <v>1220</v>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E122" t="n">
+        <v>6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -4192,15 +3776,11 @@
       <c r="D123" t="n">
         <v>17</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>70</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
@@ -4222,15 +3802,11 @@
       <c r="D124" t="n">
         <v>12</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E124" t="n">
+        <v>5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>70</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -4252,15 +3828,11 @@
       <c r="D125" t="n">
         <v>18</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E125" t="n">
+        <v>13</v>
+      </c>
+      <c r="F125" t="n">
+        <v>70</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -4280,15 +3852,11 @@
         <v>1824</v>
       </c>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>70</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
@@ -4314,15 +3882,11 @@
       <c r="D127" t="n">
         <v>17</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E127" t="n">
+        <v>15</v>
+      </c>
+      <c r="F127" t="n">
+        <v>70</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -4370,15 +3934,11 @@
       <c r="D129" t="n">
         <v>16</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E129" t="n">
+        <v>10</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
@@ -4404,15 +3964,11 @@
       <c r="D130" t="n">
         <v>19</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E130" t="n">
+        <v>18</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
@@ -4464,15 +4020,11 @@
       <c r="D132" t="n">
         <v>14</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E132" t="n">
+        <v>5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
@@ -4496,15 +4048,11 @@
         <v>30</v>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E133" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
@@ -4528,15 +4076,11 @@
         <v>13</v>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E134" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4562,15 +4106,11 @@
       <c r="D135" t="n">
         <v>15</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F135" t="n">
+        <v>70</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -4592,15 +4132,11 @@
       <c r="D136" t="n">
         <v>16</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-1c</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>14</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -4623,10 +4159,8 @@
         <v>10</v>
       </c>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="F137" t="n">
+        <v>10</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
@@ -4653,10 +4187,8 @@
         <v>10</v>
       </c>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="F138" t="n">
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
@@ -4682,15 +4214,11 @@
       <c r="D139" t="n">
         <v>17</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E139" t="n">
+        <v>18</v>
+      </c>
+      <c r="F139" t="n">
+        <v>70</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -4712,15 +4240,9 @@
       <c r="D140" t="n">
         <v>66</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>70</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -4742,15 +4264,11 @@
       <c r="D141" t="n">
         <v>17</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E141" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>14</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
@@ -4776,15 +4294,11 @@
       <c r="D142" t="n">
         <v>30</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E142" t="n">
+        <v>8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4834,15 +4348,11 @@
       <c r="D144" t="n">
         <v>19</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E144" t="n">
+        <v>6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -4890,15 +4400,11 @@
       <c r="D146" t="n">
         <v>22</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E146" t="n">
+        <v>14</v>
+      </c>
+      <c r="F146" t="n">
+        <v>70</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -4920,15 +4426,11 @@
       <c r="D147" t="n">
         <v>36</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E147" t="n">
+        <v>12</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
@@ -4948,15 +4450,11 @@
         <v>30</v>
       </c>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E148" t="n">
+        <v>6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
@@ -4982,15 +4480,11 @@
       <c r="D149" t="n">
         <v>23</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E149" t="n">
+        <v>14</v>
+      </c>
+      <c r="F149" t="n">
+        <v>70</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -5012,15 +4506,11 @@
       <c r="D150" t="n">
         <v>11</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E150" t="n">
+        <v>3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5044,15 +4534,11 @@
         <v>19</v>
       </c>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E151" t="n">
+        <v>3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
@@ -5076,15 +4562,11 @@
         <v>32</v>
       </c>
       <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E152" t="n">
+        <v>13</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5110,15 +4592,11 @@
       <c r="D153" t="n">
         <v>13</v>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E153" t="n">
+        <v>7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
@@ -5142,15 +4620,11 @@
         <v>1715</v>
       </c>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="E154" t="n">
+        <v>6</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">

--- a/data/steve-fox-tekken-8-frame-data.xlsx
+++ b/data/steve-fox-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -517,7 +517,7 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -573,7 +573,7 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="n">
         <v>70</v>
@@ -721,7 +721,7 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
@@ -837,7 +837,7 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F15" t="n">
         <v>70</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
@@ -1009,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F21" t="n">
         <v>70</v>
@@ -1035,7 +1035,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
@@ -1065,7 +1065,7 @@
         <v>34</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>22</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F25" t="n">
         <v>70</v>
@@ -1145,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F26" t="n">
         <v>70</v>
@@ -1171,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F27" t="n">
         <v>2</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>7</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F32" t="n">
         <v>70</v>
@@ -1333,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F33" t="n">
         <v>14</v>
@@ -1433,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F37" t="n">
         <v>-2</v>
@@ -1463,7 +1463,7 @@
         <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F38" t="n">
         <v>-5</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F39" t="n">
         <v>-5</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F40" t="n">
         <v>70</v>
@@ -1549,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F41" t="n">
         <v>6</v>
@@ -1575,7 +1575,7 @@
         <v>28</v>
       </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F42" t="n">
         <v>14</v>
@@ -1601,7 +1601,7 @@
         <v>26</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1635,7 +1635,7 @@
         <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F45" t="n">
         <v>7</v>
@@ -1689,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F46" t="n">
         <v>70</v>
@@ -1719,7 +1719,7 @@
         <v>16</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F50" t="n">
         <v>70</v>
@@ -1817,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F51" t="n">
         <v>70</v>
@@ -1843,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F52" t="n">
         <v>70</v>
@@ -1901,7 +1901,7 @@
         <v>13</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F54" t="n">
         <v>4</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F58" t="n">
         <v>70</v>
@@ -2051,7 +2051,7 @@
         <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F59" t="n">
         <v>6</v>
@@ -2085,7 +2085,7 @@
         <v>19</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
@@ -2113,7 +2113,7 @@
         <v>19</v>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F61" t="n">
         <v>70</v>
@@ -2167,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F63" t="n">
         <v>-3</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F64" t="n">
         <v>70</v>
@@ -2217,7 +2217,7 @@
         <v>21</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F65" t="n">
         <v>5</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F67" t="n">
         <v>70</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F68" t="n">
         <v>11</v>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F69" t="n">
         <v>5</v>
@@ -2395,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F72" t="n">
         <v>2</v>
@@ -2425,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F73" t="n">
         <v>70</v>
@@ -2451,7 +2451,7 @@
         <v>14</v>
       </c>
       <c r="E74" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F74" t="n">
         <v>70</v>
@@ -2477,7 +2477,7 @@
         <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2507,7 +2507,7 @@
         <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F76" t="n">
         <v>7</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F79" t="n">
         <v>70</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
         <v>23</v>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="F81" t="n">
         <v>23</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F84" t="n">
         <v>70</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>-17</v>
+        <v>17</v>
       </c>
       <c r="F85" t="n">
         <v>28</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>18</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F88" t="n">
         <v>70</v>
@@ -2871,7 +2871,7 @@
         <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F89" t="n">
         <v>70</v>
@@ -3001,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="E94" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F94" t="n">
         <v>17</v>
@@ -3027,7 +3027,7 @@
         <v>20</v>
       </c>
       <c r="E95" t="n">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F95" t="n">
         <v>70</v>
@@ -3057,7 +3057,7 @@
         <v>16</v>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F96" t="n">
         <v>70</v>
@@ -3083,7 +3083,7 @@
         <v>15</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F98" t="n">
         <v>70</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>7</v>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F100" t="n">
         <v>4</v>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F101" t="n">
         <v>3</v>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
         <v>7</v>
@@ -3245,7 +3245,7 @@
         <v>14</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F103" t="n">
         <v>4</v>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F104" t="n">
         <v>4</v>
@@ -3333,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F106" t="n">
         <v>9</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F109" t="n">
         <v>8</v>
@@ -3435,7 +3435,7 @@
         <v>14</v>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F110" t="n">
         <v>2</v>
@@ -3469,7 +3469,7 @@
         <v>17</v>
       </c>
       <c r="E111" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F111" t="n">
         <v>-6</v>
@@ -3495,7 +3495,7 @@
         <v>17</v>
       </c>
       <c r="E112" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F112" t="n">
         <v>-1</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F113" t="n">
         <v>-5</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F114" t="n">
         <v>70</v>
@@ -3573,7 +3573,7 @@
         <v>28</v>
       </c>
       <c r="E115" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F115" t="n">
         <v>70</v>
@@ -3599,7 +3599,7 @@
         <v>15</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F116" t="n">
         <v>2</v>
@@ -3625,7 +3625,7 @@
         <v>28</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F117" t="n">
         <v>7</v>
@@ -3655,7 +3655,7 @@
         <v>15</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F118" t="n">
         <v>2</v>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F120" t="n">
         <v>-3</v>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F121" t="n">
         <v>70</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F122" t="n">
         <v>10</v>
@@ -3777,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F123" t="n">
         <v>70</v>
@@ -3803,7 +3803,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F124" t="n">
         <v>70</v>
@@ -3829,7 +3829,7 @@
         <v>18</v>
       </c>
       <c r="E125" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F125" t="n">
         <v>70</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
         <v>70</v>
@@ -3883,7 +3883,7 @@
         <v>17</v>
       </c>
       <c r="E127" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F127" t="n">
         <v>70</v>
@@ -3935,7 +3935,7 @@
         <v>16</v>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F129" t="n">
         <v>17</v>
@@ -3965,7 +3965,7 @@
         <v>19</v>
       </c>
       <c r="E130" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F130" t="n">
         <v>2</v>
@@ -4021,7 +4021,7 @@
         <v>14</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F132" t="n">
         <v>4</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
         <v>7</v>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F134" t="n">
         <v>4</v>
@@ -4107,7 +4107,7 @@
         <v>15</v>
       </c>
       <c r="E135" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F135" t="n">
         <v>70</v>
@@ -4133,7 +4133,7 @@
         <v>16</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F136" t="n">
         <v>14</v>
@@ -4215,7 +4215,7 @@
         <v>17</v>
       </c>
       <c r="E139" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F139" t="n">
         <v>70</v>
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="E141" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
         <v>14</v>
@@ -4295,7 +4295,7 @@
         <v>30</v>
       </c>
       <c r="E142" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F142" t="n">
         <v>4</v>
@@ -4349,7 +4349,7 @@
         <v>19</v>
       </c>
       <c r="E144" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F144" t="n">
         <v>5</v>
@@ -4401,7 +4401,7 @@
         <v>22</v>
       </c>
       <c r="E146" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F146" t="n">
         <v>70</v>
@@ -4427,7 +4427,7 @@
         <v>36</v>
       </c>
       <c r="E147" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F147" t="n">
         <v>9</v>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F148" t="n">
         <v>7</v>
@@ -4481,7 +4481,7 @@
         <v>23</v>
       </c>
       <c r="E149" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F149" t="n">
         <v>70</v>
@@ -4507,7 +4507,7 @@
         <v>11</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F150" t="n">
         <v>3</v>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F151" t="n">
         <v>3</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F152" t="n">
         <v>3</v>
@@ -4593,7 +4593,7 @@
         <v>13</v>
       </c>
       <c r="E153" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F153" t="n">
         <v>4</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F154" t="n">
         <v>11</v>
